--- a/ahp.xlsx
+++ b/ahp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdoo\Downloads\CSPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6E910-DA72-4FE2-AD29-C0A2829FC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="1" activeTab="6" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +278,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -539,10 +544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{CBACAA53-3CDB-4AFF-88A0-CE6B24EF8288}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="39">
     <dxf>
@@ -1307,48 +1313,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54EE501A-939D-4F5F-851B-F1D04B92BD8F}" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{9AB6CB22-6753-4545-B4BD-F673BC0D1411}" name="Alternatives/Criteria" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{84673492-D275-4978-B867-2FA504067638}" name="Data Encryption at rest" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{8030C1FC-4495-42B4-AE01-45C6C9A5BD35}" name=" Encryption Algorithm" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{64FFDFAD-2C64-4B56-B9C9-D365FA442A58}" name=" Key size" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{4DA1454A-FCB1-4EAA-971F-5AD8CDE685AC}" name=" Key Generation" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{17DF776E-0018-47A1-9D83-65B77442B86F}" name=" Key Rotation" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{2DB08998-6986-4677-9142-383E9E483581}" name=" Data Inventory" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{477E0685-16DC-4DA7-B001-321C70AE41AC}" name=" Data Classification" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{DE9853F5-4BE8-4305-A943-2F2D2DE5B204}" name=" Data encryption in Transit" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{1D18CBA8-F2A4-4820-926F-CAA727D0F5C9}" name="Encryption in Transit algorithm(RSA)" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{4C5496E9-8826-496A-88BB-D59CF94E0D73}" name=" Key size (Transit)" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{423377D1-7DEF-4487-8E95-C7B6B07CEA23}" name=" Sensitive Data Protection" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{EEB5F134-277E-4661-A646-40BBCC925EFD}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{B93C86EE-A012-4C9C-8A7D-83BFDAAD726F}" name=" Network Security" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{F77CD4CD-2B14-4869-AD1E-C43A9B03EA16}" name="network configuration" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{A34BBEB5-B632-468E-8458-94C3616C27A5}" name=" Network Defense" dataDxfId="20"/>
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="35"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="34"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="33"/>
+    <tableColumn id="4" name=" Key size" dataDxfId="32"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="31"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="30"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="29"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="28"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="27"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="26"/>
+    <tableColumn id="11" name=" Key size (Transit)" dataDxfId="25"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="24"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="23"/>
+    <tableColumn id="15" name=" Network Security" dataDxfId="22"/>
+    <tableColumn id="18" name="network configuration" dataDxfId="21"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="0"/>
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="15"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="14"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="13"/>
+    <tableColumn id="4" name=" Key size(Rest)" dataDxfId="12"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="11"/>
+    <tableColumn id="6" name=" Key Inventory Management" dataDxfId="10"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="9"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="8"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="7"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="6"/>
+    <tableColumn id="11" name=" Key size(transit)" dataDxfId="5"/>
+    <tableColumn id="12" name=" Data Retention and Deletion" dataDxfId="4"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="3"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="2"/>
+    <tableColumn id="15" name=" Network Security" dataDxfId="1"/>
+    <tableColumn id="20" name=" Network Defense" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1650,14 +1656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E01D30-1947-4D1B-B76D-27C1229B85F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
@@ -1678,7 +1684,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="32.4" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>39</v>
@@ -2272,34 +2278,34 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="K15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="K16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:13">
       <c r="K17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:13">
       <c r="K18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:13">
       <c r="K19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:13">
       <c r="K20" s="5"/>
     </row>
   </sheetData>
@@ -2312,14 +2318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED208AA-E065-457D-A9FE-0D2BAA3E206B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2341,7 +2347,7 @@
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2990,22 +2996,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:11">
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:11">
       <c r="K18" s="1"/>
     </row>
   </sheetData>
@@ -3014,14 +3020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111D4274-5E1B-43D8-BC36-E0E3AA48991B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -3032,7 +3038,7 @@
     <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3576,14 +3582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D96D85-FBC3-4D1C-A448-772C6911154F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3603,7 +3609,7 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="32.4" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -4153,34 +4159,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:14">
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:14">
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:14">
       <c r="K19" s="5"/>
     </row>
   </sheetData>
@@ -4192,21 +4198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89F140-AAC5-4488-B6CA-135D6A1040A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" hidden="1" customWidth="1"/>
     <col min="8" max="19" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -4764,7 +4770,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -4832,21 +4838,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469FD5A-E353-421F-806A-5A2BFD06901C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>365</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>0.50484094052558781</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>30</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -4886,7 +4892,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>730</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>90</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>0.88520055325034575</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>0.92669432918395578</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>0.88520055325034575</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="13">
         <v>30</v>
       </c>
@@ -4952,31 +4958,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3D111-28AF-4448-86A4-F6D249A52144}">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:V10"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="4" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="29" customWidth="1"/>
-    <col min="6" max="7" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="20.77734375" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="29" customWidth="1"/>
-    <col min="9" max="11" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="20.77734375" customWidth="1"/>
     <col min="12" max="12" width="20.77734375" style="29" customWidth="1"/>
-    <col min="13" max="15" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="20.77734375" customWidth="1"/>
     <col min="16" max="16" width="20.77734375" style="29" customWidth="1"/>
-    <col min="17" max="18" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="20.77734375" customWidth="1"/>
     <col min="19" max="19" width="20.77734375" style="29" customWidth="1"/>
-    <col min="20" max="21" width="20.77734375" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="20.77734375" customWidth="1"/>
     <col min="22" max="22" width="20.77734375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -5124,7 +5129,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -5494,7 +5499,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -5568,7 +5573,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -5715,6 +5720,41 @@
         <f t="shared" si="5"/>
         <v>0.79999999999999993</v>
       </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="G11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="U11" s="32"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="E15"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ahp.xlsx
+++ b/ahp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdoo\Downloads\CSPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB3085-7713-4A49-8099-AF4A8778DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="65">
   <si>
     <t>AWS</t>
   </si>
@@ -175,9 +176,6 @@
     <t>0.6,0.9</t>
   </si>
   <si>
-    <t>0.4,0.8</t>
-  </si>
-  <si>
     <t>0.2,0.6,1</t>
   </si>
   <si>
@@ -230,13 +228,22 @@
   </si>
   <si>
     <t>monthly</t>
+  </si>
+  <si>
+    <t>sha256</t>
+  </si>
+  <si>
+    <t>Netwrok encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network Monitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +285,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,12 +319,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -534,23 +535,32 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CBACAA53-3CDB-4AFF-88A0-CE6B24EF8288}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1313,48 +1323,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P12" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
-  <tableColumns count="16">
-    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="35"/>
-    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="34"/>
-    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="33"/>
-    <tableColumn id="4" name=" Key size" dataDxfId="32"/>
-    <tableColumn id="5" name=" Key Generation" dataDxfId="31"/>
-    <tableColumn id="6" name=" Key Rotation" dataDxfId="30"/>
-    <tableColumn id="7" name=" Data Inventory" dataDxfId="29"/>
-    <tableColumn id="8" name=" Data Classification" dataDxfId="28"/>
-    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="27"/>
-    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="26"/>
-    <tableColumn id="11" name=" Key size (Transit)" dataDxfId="25"/>
-    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="24"/>
-    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="23"/>
-    <tableColumn id="15" name=" Network Security" dataDxfId="22"/>
-    <tableColumn id="18" name="network configuration" dataDxfId="21"/>
-    <tableColumn id="16" name=" Network Defense" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54EE501A-939D-4F5F-851B-F1D04B92BD8F}" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{9AB6CB22-6753-4545-B4BD-F673BC0D1411}" name="Alternatives/Criteria" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{84673492-D275-4978-B867-2FA504067638}" name="Data Encryption at rest" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{8030C1FC-4495-42B4-AE01-45C6C9A5BD35}" name=" Encryption Algorithm" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{64FFDFAD-2C64-4B56-B9C9-D365FA442A58}" name=" Key size" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{4DA1454A-FCB1-4EAA-971F-5AD8CDE685AC}" name=" Key Generation" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{17DF776E-0018-47A1-9D83-65B77442B86F}" name=" Key Rotation" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{2DB08998-6986-4677-9142-383E9E483581}" name=" Data Inventory" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{477E0685-16DC-4DA7-B001-321C70AE41AC}" name=" Data Classification" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{DE9853F5-4BE8-4305-A943-2F2D2DE5B204}" name=" Data encryption in Transit" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{1D18CBA8-F2A4-4820-926F-CAA727D0F5C9}" name="Encryption in Transit algorithm(RSA)" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{4C5496E9-8826-496A-88BB-D59CF94E0D73}" name=" Key size (Transit)" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{423377D1-7DEF-4487-8E95-C7B6B07CEA23}" name=" Sensitive Data Protection" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{EEB5F134-277E-4661-A646-40BBCC925EFD}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{919F0F37-0821-4AD2-99F3-AD6E1F20A4D7}" name="Netwrok encryption" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{B93C86EE-A012-4C9C-8A7D-83BFDAAD726F}" name=" Network Monitor" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{F77CD4CD-2B14-4869-AD1E-C43A9B03EA16}" name="network configuration" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{A34BBEB5-B632-468E-8458-94C3616C27A5}" name=" Network Defense" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <tableColumns count="16">
-    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="15"/>
-    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="14"/>
-    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="13"/>
-    <tableColumn id="4" name=" Key size(Rest)" dataDxfId="12"/>
-    <tableColumn id="5" name=" Key Generation" dataDxfId="11"/>
-    <tableColumn id="6" name=" Key Inventory Management" dataDxfId="10"/>
-    <tableColumn id="7" name=" Data Inventory" dataDxfId="9"/>
-    <tableColumn id="8" name=" Data Classification" dataDxfId="8"/>
-    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="7"/>
-    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="6"/>
-    <tableColumn id="11" name=" Key size(transit)" dataDxfId="5"/>
-    <tableColumn id="12" name=" Data Retention and Deletion" dataDxfId="4"/>
-    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="3"/>
-    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="2"/>
-    <tableColumn id="15" name=" Network Security" dataDxfId="1"/>
-    <tableColumn id="20" name=" Network Defense" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,14 +1667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E01D30-1947-4D1B-B76D-27C1229B85F3}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
@@ -1676,15 +1687,15 @@
     <col min="10" max="10" width="34.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="14" width="57.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.4" customHeight="1">
+    <row r="1" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>13</v>
@@ -1716,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>18</v>
@@ -1725,16 +1736,19 @@
         <v>19</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1772,19 +1786,22 @@
         <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>61</v>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1822,19 +1839,22 @@
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>61</v>
+      <c r="O3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1872,19 +1892,22 @@
         <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>62</v>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1922,19 +1945,22 @@
         <v>32</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>60</v>
+      <c r="O5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1972,19 +1998,22 @@
         <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>59</v>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2022,19 +2051,22 @@
         <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>61</v>
+      <c r="O7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2066,25 +2098,28 @@
         <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>61</v>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2122,19 +2157,22 @@
         <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>61</v>
+      <c r="O9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2172,19 +2210,22 @@
         <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>61</v>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -2222,19 +2263,22 @@
         <v>32</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>39</v>
@@ -2273,39 +2317,51 @@
       <c r="N12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15" t="s">
+      <c r="O12" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="11:13">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="11:13">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="11:13">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="11:13">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K20" s="5"/>
     </row>
   </sheetData>
@@ -2318,14 +2374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED208AA-E065-457D-A9FE-0D2BAA3E206B}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2347,7 +2403,7 @@
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -2394,19 +2450,19 @@
         <v>20</v>
       </c>
       <c r="P1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2494,7 @@
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
@@ -2465,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -2524,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
@@ -2583,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2642,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2791,8 +2847,8 @@
       <c r="J8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
+      <c r="K8" s="2">
+        <v>0.4</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
@@ -2819,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2878,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2996,22 +3052,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="11:11">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" s="1"/>
     </row>
   </sheetData>
@@ -3020,14 +3076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111D4274-5E1B-43D8-BC36-E0E3AA48991B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -3038,7 +3094,7 @@
     <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -3061,7 +3117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3084,7 +3140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3130,7 +3186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -3153,7 +3209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3176,7 +3232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3199,7 +3255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3222,7 +3278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3245,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3268,7 +3324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -3291,7 +3347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3314,7 +3370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3360,7 +3416,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3383,7 +3439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3406,7 +3462,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3429,7 +3485,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3452,7 +3508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3475,7 +3531,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3498,7 +3554,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3521,7 +3577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3544,7 +3600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3567,7 +3623,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3582,14 +3638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D96D85-FBC3-4D1C-A448-772C6911154F}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3609,7 +3665,7 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.4" customHeight="1">
+    <row r="1" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
@@ -3641,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>17</v>
@@ -3659,7 +3715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3756,7 @@
         <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>22</v>
@@ -3709,7 +3765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>22</v>
@@ -3759,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +3856,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>22</v>
@@ -3809,7 +3865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3850,7 +3906,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>22</v>
@@ -3859,7 +3915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>22</v>
@@ -3909,7 +3965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +4006,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>22</v>
@@ -3959,7 +4015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4000,7 +4056,7 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>22</v>
@@ -4009,7 +4065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -4050,7 +4106,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>22</v>
@@ -4059,7 +4115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -4100,7 +4156,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>22</v>
@@ -4109,7 +4165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -4150,7 +4206,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>22</v>
@@ -4159,34 +4215,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="11:14">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="11:14">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="11:14">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K19" s="5"/>
     </row>
   </sheetData>
@@ -4198,21 +4254,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89F140-AAC5-4488-B6CA-135D6A1040A1}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" hidden="1" customWidth="1"/>
     <col min="8" max="19" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4330,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -4336,7 +4392,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4398,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -4460,7 +4516,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4578,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -4584,7 +4640,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -4646,7 +4702,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -4770,7 +4826,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -4838,21 +4894,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469FD5A-E353-421F-806A-5A2BFD06901C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>365</v>
       </c>
@@ -4862,7 +4921,7 @@
         <v>0.50484094052558781</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>30</v>
       </c>
@@ -4872,7 +4931,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -4882,7 +4941,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -4892,7 +4951,7 @@
         <v>0.9681881051175657</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>730</v>
       </c>
@@ -4902,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>90</v>
       </c>
@@ -4912,7 +4971,7 @@
         <v>0.88520055325034575</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -4922,7 +4981,7 @@
         <v>0.92669432918395578</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4932,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -4942,7 +5001,7 @@
         <v>0.88520055325034575</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>30</v>
       </c>
@@ -4958,30 +5017,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3D111-28AF-4448-86A4-F6D249A52144}">
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="29" customWidth="1"/>
-    <col min="6" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="29" customWidth="1"/>
-    <col min="9" max="11" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="29" customWidth="1"/>
-    <col min="13" max="15" width="20.77734375" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" style="29" customWidth="1"/>
-    <col min="17" max="18" width="20.77734375" customWidth="1"/>
-    <col min="19" max="19" width="20.77734375" style="29" customWidth="1"/>
-    <col min="20" max="21" width="20.77734375" customWidth="1"/>
-    <col min="22" max="22" width="20.77734375" style="29" customWidth="1"/>
+    <col min="1" max="22" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4994,7 +5042,7 @@
       <c r="D1" s="23">
         <v>0.9</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="28">
         <f>AVERAGE(B1:D1)</f>
         <v>0.96666666666666667</v>
       </c>
@@ -5004,7 +5052,7 @@
       <c r="G1" s="23">
         <v>0.5</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="2">
         <f>AVERAGE(F1:G1)</f>
         <v>0.75</v>
       </c>
@@ -5017,7 +5065,7 @@
       <c r="K1" s="25">
         <v>0.6</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="2">
         <f>AVERAGE(I1:K1)</f>
         <v>0.6</v>
       </c>
@@ -5030,7 +5078,7 @@
       <c r="O1" s="25">
         <v>0.6</v>
       </c>
-      <c r="P1" s="30">
+      <c r="P1" s="28">
         <f>AVERAGE(M1:O1)</f>
         <v>0.56666666666666676</v>
       </c>
@@ -5040,7 +5088,7 @@
       <c r="R1" s="22">
         <v>1</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="2">
         <f>AVERAGE(R1)</f>
         <v>1</v>
       </c>
@@ -5050,12 +5098,12 @@
       <c r="U1" s="22">
         <v>1</v>
       </c>
-      <c r="V1" s="30">
+      <c r="V1" s="28">
         <f>AVERAGE(R1,T1:U1)</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -5068,7 +5116,7 @@
       <c r="D2" s="23">
         <v>0.9</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="28">
         <f t="shared" ref="E2:E10" si="0">AVERAGE(B2:D2)</f>
         <v>0.96666666666666667</v>
       </c>
@@ -5078,7 +5126,7 @@
       <c r="G2" s="23">
         <v>0.97</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H10" si="1">AVERAGE(F2:G2)</f>
         <v>0.98499999999999999</v>
       </c>
@@ -5091,7 +5139,7 @@
       <c r="K2" s="25">
         <v>0.3</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="2">
         <f t="shared" ref="L2:L10" si="2">AVERAGE(I2:K2)</f>
         <v>0.3</v>
       </c>
@@ -5104,7 +5152,7 @@
       <c r="O2" s="25">
         <v>0.3</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="28">
         <f t="shared" ref="P2:P10" si="3">AVERAGE(M2:O2)</f>
         <v>0.26666666666666666</v>
       </c>
@@ -5114,7 +5162,7 @@
       <c r="R2" s="22">
         <v>1</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="2">
         <f t="shared" ref="S2:S10" si="4">AVERAGE(R2)</f>
         <v>1</v>
       </c>
@@ -5124,12 +5172,12 @@
       <c r="U2" s="22">
         <v>1</v>
       </c>
-      <c r="V2" s="30">
+      <c r="V2" s="28">
         <f t="shared" ref="V2:V10" si="5">AVERAGE(R2,T2:U2)</f>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -5142,7 +5190,7 @@
       <c r="D3" s="23">
         <v>0.9</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
@@ -5152,7 +5200,7 @@
       <c r="G3" s="23">
         <v>0.97</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="2">
         <f t="shared" si="1"/>
         <v>0.98499999999999999</v>
       </c>
@@ -5165,7 +5213,7 @@
       <c r="K3" s="25">
         <v>0.9</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="2">
         <f t="shared" si="2"/>
         <v>0.79999999999999993</v>
       </c>
@@ -5178,7 +5226,7 @@
       <c r="O3" s="25">
         <v>0.9</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="28">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
@@ -5188,7 +5236,7 @@
       <c r="R3" s="22">
         <v>1</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5198,12 +5246,12 @@
       <c r="U3" s="22">
         <v>1</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -5216,7 +5264,7 @@
       <c r="D4" s="23">
         <v>0.3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -5226,7 +5274,7 @@
       <c r="G4" s="23">
         <v>0.97</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>0.98499999999999999</v>
       </c>
@@ -5239,7 +5287,7 @@
       <c r="K4" s="25">
         <v>0.9</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="2">
         <f t="shared" si="2"/>
         <v>0.79999999999999993</v>
       </c>
@@ -5252,7 +5300,7 @@
       <c r="O4" s="25">
         <v>0.9</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="28">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
       </c>
@@ -5262,7 +5310,7 @@
       <c r="R4" s="22">
         <v>1</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5272,12 +5320,12 @@
       <c r="U4" s="22">
         <v>1</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="28">
         <f t="shared" si="5"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -5290,7 +5338,7 @@
       <c r="D5" s="23">
         <v>0.9</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
@@ -5300,7 +5348,7 @@
       <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -5313,7 +5361,7 @@
       <c r="K5" s="25">
         <v>0.3</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -5326,7 +5374,7 @@
       <c r="O5" s="25">
         <v>0.3</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5336,7 +5384,7 @@
       <c r="R5" s="22">
         <v>1</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5346,12 +5394,12 @@
       <c r="U5" s="22">
         <v>1</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="28">
         <f t="shared" si="5"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -5364,7 +5412,7 @@
       <c r="D6" s="23">
         <v>0.9</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
@@ -5374,7 +5422,7 @@
       <c r="G6" s="23">
         <v>0.89</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0.94500000000000006</v>
       </c>
@@ -5387,7 +5435,7 @@
       <c r="K6" s="25">
         <v>0.3</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -5400,7 +5448,7 @@
       <c r="O6" s="25">
         <v>0.3</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="28">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5410,7 +5458,7 @@
       <c r="R6" s="22">
         <v>1</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5420,12 +5468,12 @@
       <c r="U6" s="22">
         <v>1</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="28">
         <f t="shared" si="5"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -5438,7 +5486,7 @@
       <c r="D7" s="23">
         <v>0.6</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
@@ -5448,7 +5496,7 @@
       <c r="G7" s="23">
         <v>0.93</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0.96500000000000008</v>
       </c>
@@ -5461,7 +5509,7 @@
       <c r="K7" s="25">
         <v>0.9</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
@@ -5474,7 +5522,7 @@
       <c r="O7" s="25">
         <v>0.9</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <f t="shared" si="3"/>
         <v>0.76666666666666661</v>
       </c>
@@ -5484,7 +5532,7 @@
       <c r="R7" s="22">
         <v>1</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5494,12 +5542,12 @@
       <c r="U7" s="22">
         <v>1</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="28">
         <f t="shared" si="5"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -5512,7 +5560,7 @@
       <c r="D8" s="24">
         <v>0.6</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
@@ -5522,7 +5570,7 @@
       <c r="G8" s="23">
         <v>1</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5535,7 +5583,7 @@
       <c r="K8" s="25">
         <v>0.3</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -5548,7 +5596,7 @@
       <c r="O8" s="25">
         <v>0.3</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <f t="shared" si="3"/>
         <v>0.26666666666666666</v>
       </c>
@@ -5558,7 +5606,7 @@
       <c r="R8" s="22">
         <v>1</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5568,12 +5616,12 @@
       <c r="U8" s="22">
         <v>1</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="28">
         <f t="shared" si="5"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -5586,7 +5634,7 @@
       <c r="D9" s="23">
         <v>0.9</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
@@ -5596,7 +5644,7 @@
       <c r="G9" s="23">
         <v>0.89</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>0.94500000000000006</v>
       </c>
@@ -5609,7 +5657,7 @@
       <c r="K9" s="25">
         <v>0.3</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -5622,7 +5670,7 @@
       <c r="O9" s="25">
         <v>0.3</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5632,7 +5680,7 @@
       <c r="R9" s="22">
         <v>1</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5642,12 +5690,12 @@
       <c r="U9" s="22">
         <v>1</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="28">
         <f t="shared" si="5"/>
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -5660,7 +5708,7 @@
       <c r="D10" s="23">
         <v>0.6</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
@@ -5670,7 +5718,7 @@
       <c r="G10" s="23">
         <v>0.97</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>0.98499999999999999</v>
       </c>
@@ -5683,7 +5731,7 @@
       <c r="K10" s="25">
         <v>0.9</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
@@ -5696,7 +5744,7 @@
       <c r="O10" s="25">
         <v>0.9</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="28">
         <f t="shared" si="3"/>
         <v>0.46666666666666662</v>
       </c>
@@ -5706,7 +5754,7 @@
       <c r="R10" s="22">
         <v>1</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5716,45 +5764,10 @@
       <c r="U10" s="22">
         <v>1</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="28">
         <f t="shared" si="5"/>
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="G11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="E15"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ahp.xlsx
+++ b/ahp.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdoo\Downloads\CSPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\New_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB3085-7713-4A49-8099-AF4A8778DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386C7DF-8BCD-4735-B2C8-F84350ADF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
+    <sheet name="test" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="85">
   <si>
     <t>AWS</t>
   </si>
@@ -237,6 +238,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Network Monitor</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Bi-annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarterly </t>
+  </si>
+  <si>
+    <t>Half-annually</t>
+  </si>
+  <si>
+    <t>AES 256</t>
+  </si>
+  <si>
+    <t>3DES 56</t>
+  </si>
+  <si>
+    <t>AES 128</t>
+  </si>
+  <si>
+    <t>RSA 3072</t>
+  </si>
+  <si>
+    <t>RSA 4096</t>
+  </si>
+  <si>
+    <t>RSA 2048</t>
+  </si>
+  <si>
+    <t>RSA not mentioned</t>
+  </si>
+  <si>
+    <t>RSA+sha256</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0,0.25,0.5,0.75,1</t>
+  </si>
+  <si>
+    <t>0,0.25,0.50,0.75,1</t>
+  </si>
+  <si>
+    <t>0.2,0.4,0.6,0.8</t>
   </si>
 </sst>
 </file>
@@ -285,7 +346,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +380,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,12 +611,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CBACAA53-3CDB-4AFF-88A0-CE6B24EF8288}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -556,9 +681,284 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1018,6 +1418,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1323,49 +1740,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54EE501A-939D-4F5F-851B-F1D04B92BD8F}" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54EE501A-939D-4F5F-851B-F1D04B92BD8F}" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{9AB6CB22-6753-4545-B4BD-F673BC0D1411}" name="Alternatives/Criteria" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{84673492-D275-4978-B867-2FA504067638}" name="Data Encryption at rest" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{8030C1FC-4495-42B4-AE01-45C6C9A5BD35}" name=" Encryption Algorithm" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{64FFDFAD-2C64-4B56-B9C9-D365FA442A58}" name=" Key size" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{4DA1454A-FCB1-4EAA-971F-5AD8CDE685AC}" name=" Key Generation" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{17DF776E-0018-47A1-9D83-65B77442B86F}" name=" Key Rotation" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{2DB08998-6986-4677-9142-383E9E483581}" name=" Data Inventory" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{477E0685-16DC-4DA7-B001-321C70AE41AC}" name=" Data Classification" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{DE9853F5-4BE8-4305-A943-2F2D2DE5B204}" name=" Data encryption in Transit" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{1D18CBA8-F2A4-4820-926F-CAA727D0F5C9}" name="Encryption in Transit algorithm(RSA)" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{4C5496E9-8826-496A-88BB-D59CF94E0D73}" name=" Key size (Transit)" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{423377D1-7DEF-4487-8E95-C7B6B07CEA23}" name=" Sensitive Data Protection" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{EEB5F134-277E-4661-A646-40BBCC925EFD}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{919F0F37-0821-4AD2-99F3-AD6E1F20A4D7}" name="Netwrok encryption" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{B93C86EE-A012-4C9C-8A7D-83BFDAAD726F}" name=" Network Monitor" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{F77CD4CD-2B14-4869-AD1E-C43A9B03EA16}" name="network configuration" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{A34BBEB5-B632-468E-8458-94C3616C27A5}" name=" Network Defense" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{9AB6CB22-6753-4545-B4BD-F673BC0D1411}" name="Alternatives/Criteria" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{84673492-D275-4978-B867-2FA504067638}" name="Data Encryption at rest" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{8030C1FC-4495-42B4-AE01-45C6C9A5BD35}" name=" Encryption Algorithm" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{64FFDFAD-2C64-4B56-B9C9-D365FA442A58}" name=" Key size" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{4DA1454A-FCB1-4EAA-971F-5AD8CDE685AC}" name=" Key Generation" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{17DF776E-0018-47A1-9D83-65B77442B86F}" name=" Key Rotation" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{2DB08998-6986-4677-9142-383E9E483581}" name=" Data Inventory" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{477E0685-16DC-4DA7-B001-321C70AE41AC}" name=" Data Classification" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{DE9853F5-4BE8-4305-A943-2F2D2DE5B204}" name=" Data encryption in Transit" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{1D18CBA8-F2A4-4820-926F-CAA727D0F5C9}" name="Encryption in Transit algorithm(RSA)" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{4C5496E9-8826-496A-88BB-D59CF94E0D73}" name=" Key size (Transit)" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{423377D1-7DEF-4487-8E95-C7B6B07CEA23}" name=" Sensitive Data Protection" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{EEB5F134-277E-4661-A646-40BBCC925EFD}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{919F0F37-0821-4AD2-99F3-AD6E1F20A4D7}" name="Netwrok encryption" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{B93C86EE-A012-4C9C-8A7D-83BFDAAD726F}" name=" Network Monitor" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{F77CD4CD-2B14-4869-AD1E-C43A9B03EA16}" name="network configuration" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{A34BBEB5-B632-468E-8458-94C3616C27A5}" name=" Network Defense" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{471499F8-5F06-4479-9456-05AC1E57A0C1}" name="Table14" displayName="Table14" ref="A1:O13" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{F79905B1-E427-448C-8816-C9849B6ED82C}" name="Alternatives/Criteria" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D372D4F9-1F98-4B9E-A511-43B41537A234}" name="Data Encryption at rest" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{58F25C07-3701-44CB-9CE1-2AF851BF1AC6}" name=" Encryption Algorithm" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3EDACA02-E9A8-4514-9F86-9361BF4CC467}" name=" Key Generation" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{501E4342-8643-4544-B8C6-5B920B9BFC21}" name=" Key Rotation" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B9ECD155-1961-4F3C-9437-00CE8C2283F4}" name=" Data Inventory" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D42139EC-5955-4574-AF9C-51B316983C7A}" name=" Data Classification" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{2DBF51E3-A5C4-44B2-9D09-CC0ADBF27D9E}" name=" Data encryption in Transit" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B3CF9912-3D73-457B-B093-44DFB6534344}" name="Encryption in Transit algorithm(RSA)" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{2D6BCF95-72A9-4F66-B17F-EBE215053613}" name=" Sensitive Data Protection" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{41891C87-E879-47C2-8061-DEA60EE09F16}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{DECBD0C4-4CC4-455D-8D44-1797F09C9C17}" name="Netwrok encryption" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{D04C614C-2375-40A6-8663-EFEC59555E44}" name=" Network Monitor" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{4638AA93-8B11-4422-8353-06EC1C0C9F54}" name="network configuration" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{82EBE584-CE94-46A9-87CE-5F95D61D2B4E}" name=" Network Defense" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1670,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E01D30-1947-4D1B-B76D-27C1229B85F3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2374,6 +2814,680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18896D5-F0BB-478E-A6B5-7A94863CC960}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="35">
+        <v>365</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="35">
+        <v>30</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="35">
+        <v>30</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="35">
+        <v>30</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="35">
+        <v>730</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35">
+        <v>90</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="35">
+        <v>60</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="35">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="35">
+        <v>90</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED208AA-E065-457D-A9FE-0D2BAA3E206B}">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -3075,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111D4274-5E1B-43D8-BC36-E0E3AA48991B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -3637,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D96D85-FBC3-4D1C-A448-772C6911154F}">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -4253,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89F140-AAC5-4488-B6CA-135D6A1040A1}">
   <dimension ref="A1:S10"/>
   <sheetViews>
@@ -4893,12 +6007,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469FD5A-E353-421F-806A-5A2BFD06901C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4927,7 +6041,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26">
-        <f t="shared" ref="C3:C11" si="0">(A3-$A$6)/($A$9-$A$6)</f>
+        <f>(A3-$A$6)/($A$9-$A$6)</f>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -4937,7 +6051,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26">
-        <f t="shared" si="0"/>
+        <f>(A4-$A$6)/($A$9-$A$6)</f>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -4947,7 +6061,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26">
-        <f t="shared" si="0"/>
+        <f>(A5-$A$6)/($A$9-$A$6)</f>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -4957,7 +6071,7 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>(A6-$A$6)/($A$9-$A$6)</f>
         <v>0</v>
       </c>
     </row>
@@ -4967,7 +6081,7 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
-        <f t="shared" si="0"/>
+        <f>(A7-$A$6)/($A$9-$A$6)</f>
         <v>0.88520055325034575</v>
       </c>
     </row>
@@ -4977,7 +6091,7 @@
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26">
-        <f t="shared" si="0"/>
+        <f>(A8-$A$6)/($A$9-$A$6)</f>
         <v>0.92669432918395578</v>
       </c>
     </row>
@@ -4987,7 +6101,7 @@
       </c>
       <c r="B9" s="26"/>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>(A9-$A$6)/($A$9-$A$6)</f>
         <v>1</v>
       </c>
     </row>
@@ -4997,7 +6111,7 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26">
-        <f t="shared" si="0"/>
+        <f>(A10-$A$6)/($A$9-$A$6)</f>
         <v>0.88520055325034575</v>
       </c>
     </row>
@@ -5007,7 +6121,7 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26">
-        <f t="shared" si="0"/>
+        <f>(A11-$A$6)/($A$9-$A$6)</f>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -5016,7 +6130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3D111-28AF-4448-86A4-F6D249A52144}">
   <dimension ref="A1:V10"/>
   <sheetViews>

--- a/ahp.xlsx
+++ b/ahp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\New_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386C7DF-8BCD-4735-B2C8-F84350ADF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442C3BB-EED0-4578-BF77-9F704CF476C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="82">
   <si>
     <t>AWS</t>
   </si>
@@ -279,25 +279,16 @@
     <t>RSA+sha256</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>0,0.25,0.5,0.75,1</t>
   </si>
   <si>
-    <t>0,0.25,0.50,0.75,1</t>
-  </si>
-  <si>
-    <t>0.2,0.4,0.6,0.8</t>
+    <t>0.2,0.4,0.6,0.8,1</t>
+  </si>
+  <si>
+    <t>0.2,0.4,0.8,1</t>
+  </si>
+  <si>
+    <t>0.15,0.3,0.45,0.6,0.75,0.9</t>
   </si>
 </sst>
 </file>
@@ -529,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -611,12 +602,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -646,323 +631,6 @@
   <dxfs count="58">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -1359,6 +1027,323 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1765,47 +1750,47 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{471499F8-5F06-4479-9456-05AC1E57A0C1}" name="Table14" displayName="Table14" ref="A1:O13" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{471499F8-5F06-4479-9456-05AC1E57A0C1}" name="Table14" displayName="Table14" ref="A1:O13" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F79905B1-E427-448C-8816-C9849B6ED82C}" name="Alternatives/Criteria" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D372D4F9-1F98-4B9E-A511-43B41537A234}" name="Data Encryption at rest" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{58F25C07-3701-44CB-9CE1-2AF851BF1AC6}" name=" Encryption Algorithm" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3EDACA02-E9A8-4514-9F86-9361BF4CC467}" name=" Key Generation" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{501E4342-8643-4544-B8C6-5B920B9BFC21}" name=" Key Rotation" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{B9ECD155-1961-4F3C-9437-00CE8C2283F4}" name=" Data Inventory" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D42139EC-5955-4574-AF9C-51B316983C7A}" name=" Data Classification" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{2DBF51E3-A5C4-44B2-9D09-CC0ADBF27D9E}" name=" Data encryption in Transit" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B3CF9912-3D73-457B-B093-44DFB6534344}" name="Encryption in Transit algorithm(RSA)" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{2D6BCF95-72A9-4F66-B17F-EBE215053613}" name=" Sensitive Data Protection" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{41891C87-E879-47C2-8061-DEA60EE09F16}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{DECBD0C4-4CC4-455D-8D44-1797F09C9C17}" name="Netwrok encryption" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D04C614C-2375-40A6-8663-EFEC59555E44}" name=" Network Monitor" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{4638AA93-8B11-4422-8353-06EC1C0C9F54}" name="network configuration" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{82EBE584-CE94-46A9-87CE-5F95D61D2B4E}" name=" Network Defense" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F79905B1-E427-448C-8816-C9849B6ED82C}" name="Alternatives/Criteria" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{D372D4F9-1F98-4B9E-A511-43B41537A234}" name="Data Encryption at rest" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{58F25C07-3701-44CB-9CE1-2AF851BF1AC6}" name=" Encryption Algorithm" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{3EDACA02-E9A8-4514-9F86-9361BF4CC467}" name=" Key Generation" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{501E4342-8643-4544-B8C6-5B920B9BFC21}" name=" Key Rotation" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{B9ECD155-1961-4F3C-9437-00CE8C2283F4}" name=" Data Inventory" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D42139EC-5955-4574-AF9C-51B316983C7A}" name=" Data Classification" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{2DBF51E3-A5C4-44B2-9D09-CC0ADBF27D9E}" name=" Data encryption in Transit" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{B3CF9912-3D73-457B-B093-44DFB6534344}" name="Encryption in Transit algorithm(RSA)" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{2D6BCF95-72A9-4F66-B17F-EBE215053613}" name=" Sensitive Data Protection" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{41891C87-E879-47C2-8061-DEA60EE09F16}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{DECBD0C4-4CC4-455D-8D44-1797F09C9C17}" name="Netwrok encryption" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{D04C614C-2375-40A6-8663-EFEC59555E44}" name=" Network Monitor" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{4638AA93-8B11-4422-8353-06EC1C0C9F54}" name="network configuration" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{82EBE584-CE94-46A9-87CE-5F95D61D2B4E}" name=" Network Defense" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2817,75 +2802,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18896D5-F0BB-478E-A6B5-7A94863CC960}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="29" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2893,16 +2878,16 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="35">
+      <c r="D2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="33">
         <v>365</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -2914,25 +2899,25 @@
       <c r="H2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2940,16 +2925,16 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="35">
+      <c r="D3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="33">
         <v>30</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -2961,25 +2946,25 @@
       <c r="H3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2987,16 +2972,16 @@
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="D4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="33">
         <v>30</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -3008,25 +2993,25 @@
       <c r="H4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="35" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3034,16 +3019,16 @@
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="35">
+      <c r="D5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="33">
         <v>30</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -3055,25 +3040,25 @@
       <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="35" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="L5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3081,16 +3066,16 @@
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="D6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="33">
         <v>730</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -3102,25 +3087,25 @@
       <c r="H6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="35" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="33" t="s">
+      <c r="L6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3128,16 +3113,16 @@
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="35">
+      <c r="D7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33">
         <v>90</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -3149,25 +3134,25 @@
       <c r="H7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="35" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="33" t="s">
+      <c r="L7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3175,16 +3160,16 @@
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="33">
         <v>60</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -3196,25 +3181,25 @@
       <c r="H8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="35" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="33" t="s">
+      <c r="L8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3222,16 +3207,16 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="D9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="33">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -3243,25 +3228,25 @@
       <c r="H9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="33" t="s">
+      <c r="L9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3269,16 +3254,16 @@
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="D10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="33">
         <v>90</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -3290,25 +3275,25 @@
       <c r="H10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="35" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="33" t="s">
+      <c r="L10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3316,16 +3301,16 @@
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="33">
         <v>30</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -3337,25 +3322,25 @@
       <c r="H11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>76</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="33" t="s">
+      <c r="L11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3413,7 +3398,9 @@
       <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="13" t="s">
         <v>40</v>
       </c>
@@ -3424,13 +3411,13 @@
         <v>39</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>39</v>
@@ -3439,44 +3426,44 @@
         <v>39</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="J15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="J16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="J17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="J19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J20" s="30"/>
+      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6031,7 +6018,7 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26">
-        <f>(A2-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" ref="C2:C11" si="0">(A2-$A$6)/($A$9-$A$6)</f>
         <v>0.50484094052558781</v>
       </c>
     </row>
@@ -6041,7 +6028,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26">
-        <f>(A3-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -6051,7 +6038,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26">
-        <f>(A4-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -6061,7 +6048,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26">
-        <f>(A5-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.9681881051175657</v>
       </c>
     </row>
@@ -6071,7 +6058,7 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6">
-        <f>(A6-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6081,7 +6068,7 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
-        <f>(A7-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.88520055325034575</v>
       </c>
     </row>
@@ -6091,7 +6078,7 @@
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26">
-        <f>(A8-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.92669432918395578</v>
       </c>
     </row>
@@ -6101,7 +6088,7 @@
       </c>
       <c r="B9" s="26"/>
       <c r="C9">
-        <f>(A9-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6111,7 +6098,7 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26">
-        <f>(A10-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.88520055325034575</v>
       </c>
     </row>
@@ -6121,7 +6108,7 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26">
-        <f>(A11-$A$6)/($A$9-$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.9681881051175657</v>
       </c>
     </row>

--- a/ahp.xlsx
+++ b/ahp.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\New_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442C3BB-EED0-4578-BF77-9F704CF476C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3B06FB13-1618-4F19-9283-72A633D0A0E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="91">
   <si>
     <t>AWS</t>
   </si>
@@ -290,11 +292,38 @@
   <si>
     <t>0.15,0.3,0.45,0.6,0.75,0.9</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>LEVEL1</t>
+  </si>
+  <si>
+    <t>LEVEL2</t>
+  </si>
+  <si>
+    <t>LEVEL3</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -599,9 +628,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -623,12 +649,1216 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{CBACAA53-3CDB-4AFF-88A0-CE6B24EF8288}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="122">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1725,72 +2955,171 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54EE501A-939D-4F5F-851B-F1D04B92BD8F}" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="120" tableBorderDxfId="119">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{9AB6CB22-6753-4545-B4BD-F673BC0D1411}" name="Alternatives/Criteria" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{84673492-D275-4978-B867-2FA504067638}" name="Data Encryption at rest" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{8030C1FC-4495-42B4-AE01-45C6C9A5BD35}" name=" Encryption Algorithm" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{64FFDFAD-2C64-4B56-B9C9-D365FA442A58}" name=" Key size" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{4DA1454A-FCB1-4EAA-971F-5AD8CDE685AC}" name=" Key Generation" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{17DF776E-0018-47A1-9D83-65B77442B86F}" name=" Key Rotation" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{2DB08998-6986-4677-9142-383E9E483581}" name=" Data Inventory" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{477E0685-16DC-4DA7-B001-321C70AE41AC}" name=" Data Classification" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{DE9853F5-4BE8-4305-A943-2F2D2DE5B204}" name=" Data encryption in Transit" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{1D18CBA8-F2A4-4820-926F-CAA727D0F5C9}" name="Encryption in Transit algorithm(RSA)" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{4C5496E9-8826-496A-88BB-D59CF94E0D73}" name=" Key size (Transit)" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{423377D1-7DEF-4487-8E95-C7B6B07CEA23}" name=" Sensitive Data Protection" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{EEB5F134-277E-4661-A646-40BBCC925EFD}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{919F0F37-0821-4AD2-99F3-AD6E1F20A4D7}" name="Netwrok encryption" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{B93C86EE-A012-4C9C-8A7D-83BFDAAD726F}" name=" Network Monitor" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{F77CD4CD-2B14-4869-AD1E-C43A9B03EA16}" name="network configuration" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{A34BBEB5-B632-468E-8458-94C3616C27A5}" name=" Network Defense" dataDxfId="38"/>
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="118"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="117"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="116"/>
+    <tableColumn id="4" name=" Key size" dataDxfId="115"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="114"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="113"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="112"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="111"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="110"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="109"/>
+    <tableColumn id="11" name=" Key size (Transit)" dataDxfId="108"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="107"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="106"/>
+    <tableColumn id="12" name="Netwrok encryption" dataDxfId="105"/>
+    <tableColumn id="15" name=" Network Monitor" dataDxfId="104"/>
+    <tableColumn id="18" name="network configuration" dataDxfId="103"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{471499F8-5F06-4479-9456-05AC1E57A0C1}" name="Table14" displayName="Table14" ref="A1:O13" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:O13" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F79905B1-E427-448C-8816-C9849B6ED82C}" name="Alternatives/Criteria" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{D372D4F9-1F98-4B9E-A511-43B41537A234}" name="Data Encryption at rest" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{58F25C07-3701-44CB-9CE1-2AF851BF1AC6}" name=" Encryption Algorithm" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{3EDACA02-E9A8-4514-9F86-9361BF4CC467}" name=" Key Generation" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{501E4342-8643-4544-B8C6-5B920B9BFC21}" name=" Key Rotation" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{B9ECD155-1961-4F3C-9437-00CE8C2283F4}" name=" Data Inventory" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{D42139EC-5955-4574-AF9C-51B316983C7A}" name=" Data Classification" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{2DBF51E3-A5C4-44B2-9D09-CC0ADBF27D9E}" name=" Data encryption in Transit" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{B3CF9912-3D73-457B-B093-44DFB6534344}" name="Encryption in Transit algorithm(RSA)" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{2D6BCF95-72A9-4F66-B17F-EBE215053613}" name=" Sensitive Data Protection" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{41891C87-E879-47C2-8061-DEA60EE09F16}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{DECBD0C4-4CC4-455D-8D44-1797F09C9C17}" name="Netwrok encryption" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{D04C614C-2375-40A6-8663-EFEC59555E44}" name=" Network Monitor" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{4638AA93-8B11-4422-8353-06EC1C0C9F54}" name="network configuration" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{82EBE584-CE94-46A9-87CE-5F95D61D2B4E}" name=" Network Defense" dataDxfId="20"/>
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="98"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="97"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="96"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="95"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="94"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="93"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="92"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="91"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="90"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="89"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="88"/>
+    <tableColumn id="12" name="Netwrok encryption" dataDxfId="87"/>
+    <tableColumn id="15" name=" Network Monitor" dataDxfId="86"/>
+    <tableColumn id="18" name="network configuration" dataDxfId="85"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A8E15C4-9DC4-43F5-9AE5-8BE797C1EA16}" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P11" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{12C472C8-30FE-4152-907D-E04CFF045F00}" name="Alternatives/Criteria" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{92691934-109A-4A7C-A1AC-E7C02F57D04A}" name="Data Encryption at rest" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{807C8121-CC19-4826-8D59-B16B9CDBFEF4}" name=" Encryption Algorithm" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BC4CA6F5-FD39-4978-88EE-D9D8D6C9988E}" name=" Key size(Rest)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{CEF853A8-25FD-4E66-9995-CBD6C7FF0CD0}" name=" Key Generation" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{EFD153C4-2A6C-40C7-B2F0-08584980319F}" name=" Key Inventory Management" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{3D555C79-57F0-477F-9484-40FFBB4F5E5E}" name=" Data Inventory" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{09AFE782-CF25-4940-877C-8524572CF31C}" name=" Data Classification" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{FCC94CFF-6AB6-4160-8999-0B9774319A0F}" name=" Data encryption in Transit" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{BC9606D5-E547-4FDE-B887-56923A3D8419}" name="Encryption in Transit algorithm(RSA)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{29CCDBC4-6357-435B-B930-1733FF11D566}" name=" Key size(transit)" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{754D4C16-D762-4B83-BADA-91B6D9C43742}" name=" Data Retention and Deletion" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{12EFC99C-6249-49E5-AF40-6543C8640034}" name=" Sensitive Data Protection" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{FE9AFAC3-C4E3-4858-A2DF-C82ACDA9A929}" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{E40773E1-1CAD-4414-B948-FF22548392B7}" name=" Network Security" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{8DB0A8F0-2356-41FC-86C7-7B9341B36BDA}" name=" Network Defense" dataDxfId="0"/>
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="79"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="78"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="77"/>
+    <tableColumn id="4" name=" Key size(Rest)" dataDxfId="76"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="75"/>
+    <tableColumn id="6" name=" Key Inventory Management" dataDxfId="74"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="73"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="72"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="71"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="70"/>
+    <tableColumn id="11" name=" Key size(transit)" dataDxfId="69"/>
+    <tableColumn id="12" name=" Data Retention and Deletion" dataDxfId="68"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="67"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="66"/>
+    <tableColumn id="15" name=" Network Security" dataDxfId="65"/>
+    <tableColumn id="20" name=" Network Defense" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:R13" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="61" tableBorderDxfId="62">
+  <tableColumns count="18">
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="60"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="59"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="58"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="57"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="56"/>
+    <tableColumn id="4" name="LEVEL1" dataDxfId="10">
+      <calculatedColumnFormula>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="55"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="54"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="53"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="52"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="51"/>
+    <tableColumn id="11" name="LEVEL2" dataDxfId="9">
+      <calculatedColumnFormula>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="50"/>
+    <tableColumn id="12" name="Netwrok encryption" dataDxfId="49"/>
+    <tableColumn id="15" name=" Network Monitor" dataDxfId="48"/>
+    <tableColumn id="18" name="network configuration" dataDxfId="47"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="46"/>
+    <tableColumn id="17" name="LEVEL3" dataDxfId="8">
+      <calculatedColumnFormula>AVERAGE(M2:Q2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A1:U13" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="43" tableBorderDxfId="44">
+  <tableColumns count="21">
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="42"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="41"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="40"/>
+    <tableColumn id="4" name="Column1" dataDxfId="7">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="39"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="38"/>
+    <tableColumn id="11" name="Column2" dataDxfId="6">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="37"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="36"/>
+    <tableColumn id="17" name=" Sensitive Data Protection" dataDxfId="5"/>
+    <tableColumn id="19" name="Column3" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="35"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="34"/>
+    <tableColumn id="20" name="Column4" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="33"/>
+    <tableColumn id="12" name="Netwrok encryption" dataDxfId="32"/>
+    <tableColumn id="15" name=" Network Monitor" dataDxfId="31"/>
+    <tableColumn id="21" name="Column5" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="network configuration" dataDxfId="30"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="29"/>
+    <tableColumn id="22" name="Column6" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1457" displayName="Table1457" ref="A1:P13" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <tableColumns count="16">
+    <tableColumn id="1" name="Alternatives/Criteria" dataDxfId="25"/>
+    <tableColumn id="2" name="Data Encryption at rest" dataDxfId="24"/>
+    <tableColumn id="3" name=" Encryption Algorithm" dataDxfId="23"/>
+    <tableColumn id="5" name=" Key Generation" dataDxfId="22"/>
+    <tableColumn id="6" name=" Key Rotation" dataDxfId="21"/>
+    <tableColumn id="7" name=" Data Inventory" dataDxfId="20"/>
+    <tableColumn id="8" name=" Data Classification" dataDxfId="19"/>
+    <tableColumn id="9" name=" Data encryption in Transit" dataDxfId="18"/>
+    <tableColumn id="10" name="Encryption in Transit algorithm(RSA)" dataDxfId="17"/>
+    <tableColumn id="13" name=" Sensitive Data Protection" dataDxfId="16"/>
+    <tableColumn id="14" name=" Infrastructure and Virtualization Security Policy and Procedures" dataDxfId="15"/>
+    <tableColumn id="12" name="Netwrok encryption" dataDxfId="14"/>
+    <tableColumn id="15" name=" Network Monitor" dataDxfId="13"/>
+    <tableColumn id="18" name="network configuration" dataDxfId="12"/>
+    <tableColumn id="16" name=" Network Defense" dataDxfId="11"/>
+    <tableColumn id="4" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2092,11 +3421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E01D30-1947-4D1B-B76D-27C1229B85F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2798,12 +4127,1643 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="28.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="32" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="32" style="1" customWidth="1"/>
+    <col min="15" max="15" width="55.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="37">
+        <v>1</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.65</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="38">
+        <v>1</v>
+      </c>
+      <c r="M2" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>1</v>
+      </c>
+      <c r="R2" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S2" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="39">
+        <v>1</v>
+      </c>
+      <c r="U2" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P3" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>1</v>
+      </c>
+      <c r="R3" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S3" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="39">
+        <v>1</v>
+      </c>
+      <c r="U3" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L4" s="38">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38">
+        <v>1</v>
+      </c>
+      <c r="N4" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>1</v>
+      </c>
+      <c r="R4" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S4" s="39">
+        <v>1</v>
+      </c>
+      <c r="T4" s="39">
+        <v>1</v>
+      </c>
+      <c r="U4" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L5" s="38">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38">
+        <v>1</v>
+      </c>
+      <c r="N5" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="P5" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>1</v>
+      </c>
+      <c r="R5" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="S5" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="T5" s="39">
+        <v>1</v>
+      </c>
+      <c r="U5" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.625</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>1</v>
+      </c>
+      <c r="R6" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="S6" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="39">
+        <v>1</v>
+      </c>
+      <c r="U6" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.625</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>1</v>
+      </c>
+      <c r="R7" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="39">
+        <v>1</v>
+      </c>
+      <c r="U7" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="O8" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S8" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T8" s="39">
+        <v>1</v>
+      </c>
+      <c r="U8" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>1</v>
+      </c>
+      <c r="R9" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S9" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T9" s="39">
+        <v>1</v>
+      </c>
+      <c r="U9" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.625</v>
+      </c>
+      <c r="O10" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>1</v>
+      </c>
+      <c r="R10" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="S10" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="39">
+        <v>1</v>
+      </c>
+      <c r="U10" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="37">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>1</v>
+      </c>
+      <c r="R11" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="S11" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="39">
+        <v>1</v>
+      </c>
+      <c r="U11" s="39">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[Data Encryption at rest]:[ Encryption Algorithm]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[ Key Generation]:[ Key Rotation]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="13" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[ Data encryption in Transit]:[Encryption in Transit algorithm(RSA)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="13" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[ Infrastructure and Virtualization Security Policy and Procedures]:[ Network Monitor]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="1" t="e">
+        <f>AVERAGE(Table1456[[#This Row],[network configuration]:[ Network Defense]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="30">
+        <v>1</v>
+      </c>
+      <c r="M2" s="30">
+        <v>1</v>
+      </c>
+      <c r="N2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="30">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="30">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30">
+        <v>1</v>
+      </c>
+      <c r="N3" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="30">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="30">
+        <v>1</v>
+      </c>
+      <c r="M4" s="30">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1</v>
+      </c>
+      <c r="O4" s="30">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="34">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="30">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>10.950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="30">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>9.7999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="30">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1</v>
+      </c>
+      <c r="N8" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="30">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>10.149999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1</v>
+      </c>
+      <c r="N9" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="30">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="30">
+        <v>1</v>
+      </c>
+      <c r="M10" s="30">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="30">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1</v>
+      </c>
+      <c r="M11" s="30">
+        <v>1</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="30">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>10.549999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="1">
+        <f>SUM(Table1457[[#This Row],[Data Encryption at rest]:[ Network Defense]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18896D5-F0BB-478E-A6B5-7A94863CC960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,49 +5788,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2878,16 +5838,16 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="33">
+      <c r="D2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="32">
         <v>365</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -2899,25 +5859,25 @@
       <c r="H2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="31" t="s">
+      <c r="L2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2925,16 +5885,16 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="32">
         <v>30</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -2946,25 +5906,25 @@
       <c r="H3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="31" t="s">
+      <c r="L3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2972,16 +5932,16 @@
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="D4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="32">
         <v>30</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -2993,25 +5953,25 @@
       <c r="H4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="31" t="s">
+      <c r="L4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3019,16 +5979,16 @@
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="32">
         <v>30</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -3040,25 +6000,25 @@
       <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="L5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3066,16 +6026,16 @@
       <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="32">
         <v>730</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -3087,25 +6047,25 @@
       <c r="H6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="L6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3113,16 +6073,16 @@
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="32">
         <v>90</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -3134,25 +6094,25 @@
       <c r="H7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="L7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3160,16 +6120,16 @@
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="32">
         <v>60</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -3181,25 +6141,25 @@
       <c r="H8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="31" t="s">
+      <c r="L8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3207,16 +6167,16 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="32">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -3228,25 +6188,25 @@
       <c r="H9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="34" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="31" t="s">
+      <c r="L9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3254,16 +6214,16 @@
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32">
         <v>90</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -3275,25 +6235,25 @@
       <c r="H10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="31" t="s">
+      <c r="L10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3301,16 +6261,16 @@
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="32">
         <v>30</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -3322,25 +6282,25 @@
       <c r="H11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>76</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="31" t="s">
+      <c r="L11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3475,7 +6435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED208AA-E065-457D-A9FE-0D2BAA3E206B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -4176,8 +7150,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111D4274-5E1B-43D8-BC36-E0E3AA48991B}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4738,8 +7712,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D96D85-FBC3-4D1C-A448-772C6911154F}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -5354,8 +8328,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89F140-AAC5-4488-B6CA-135D6A1040A1}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -5994,8 +8968,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E469FD5A-E353-421F-806A-5A2BFD06901C}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
@@ -6117,761 +9091,802 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3D111-28AF-4448-86A4-F6D249A52144}">
-  <dimension ref="A1:V10"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="55.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:18" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
         <v>0.9</v>
       </c>
-      <c r="E1" s="28">
-        <f>AVERAGE(B1:D1)</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F1" s="23">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23">
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="38">
+        <v>1</v>
+      </c>
+      <c r="J2" s="38">
         <v>0.5</v>
       </c>
-      <c r="H1" s="2">
-        <f>AVERAGE(F1:G1)</f>
+      <c r="K2" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="M2" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="39">
+        <v>1</v>
+      </c>
+      <c r="O2" s="39">
+        <v>1</v>
+      </c>
+      <c r="P2" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>1</v>
+      </c>
+      <c r="R2" s="39">
+        <f t="shared" ref="R2:R13" si="0">AVERAGE(M2:Q2)</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
         <v>0.75</v>
       </c>
-      <c r="I1" s="25">
+      <c r="F3" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.38</v>
+      </c>
+      <c r="M3" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="39">
+        <v>1</v>
+      </c>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>1</v>
+      </c>
+      <c r="R3" s="39">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="G4" s="38">
         <v>0.6</v>
       </c>
-      <c r="J1" s="25">
+      <c r="H4" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+      <c r="K4" s="38">
         <v>0.6</v>
       </c>
-      <c r="K1" s="25">
+      <c r="L4" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.82</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1</v>
+      </c>
+      <c r="O4" s="39">
+        <v>1</v>
+      </c>
+      <c r="P4" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>1</v>
+      </c>
+      <c r="R4" s="39">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="G5" s="38">
         <v>0.6</v>
       </c>
-      <c r="L1" s="2">
-        <f>AVERAGE(I1:K1)</f>
+      <c r="H5" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="38">
         <v>0.6</v>
       </c>
-      <c r="M1" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N1" s="25">
+      <c r="L5" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.82</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="39">
+        <v>1</v>
+      </c>
+      <c r="O5" s="39">
+        <v>1</v>
+      </c>
+      <c r="P5" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>1</v>
+      </c>
+      <c r="R5" s="39">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.43</v>
+      </c>
+      <c r="M6" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="39">
+        <v>1</v>
+      </c>
+      <c r="O6" s="39">
+        <v>1</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>1</v>
+      </c>
+      <c r="R6" s="39">
+        <f t="shared" si="0"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.43</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="39">
+        <v>1</v>
+      </c>
+      <c r="O7" s="39">
+        <v>1</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>1</v>
+      </c>
+      <c r="R7" s="39">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
         <v>0.6</v>
       </c>
-      <c r="O1" s="25">
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
         <v>0.6</v>
       </c>
-      <c r="P1" s="28">
-        <f>AVERAGE(M1:O1)</f>
-        <v>0.56666666666666676</v>
-      </c>
-      <c r="Q1" s="22">
+      <c r="F8" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="M8" s="39">
         <v>0.2</v>
       </c>
-      <c r="R1" s="22">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2">
-        <f>AVERAGE(R1)</f>
-        <v>1</v>
-      </c>
-      <c r="T1" s="22">
+      <c r="N8" s="39">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39">
+        <v>1</v>
+      </c>
+      <c r="P8" s="39">
         <v>0.2</v>
       </c>
-      <c r="U1" s="22">
-        <v>1</v>
-      </c>
-      <c r="V1" s="28">
-        <f>AVERAGE(R1,T1:U1)</f>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="Q8" s="39">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
         <v>0.9</v>
       </c>
-      <c r="E2" s="28">
-        <f t="shared" ref="E2:E10" si="0">AVERAGE(B2:D2)</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H10" si="1">AVERAGE(F2:G2)</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I2" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K2" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L10" si="2">AVERAGE(I2:K2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M2" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="25">
+      <c r="F9" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
         <v>0</v>
       </c>
-      <c r="O2" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="P2" s="28">
-        <f t="shared" ref="P2:P10" si="3">AVERAGE(M2:O2)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="K9" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.38</v>
+      </c>
+      <c r="M9" s="39">
         <v>0.2</v>
       </c>
-      <c r="R2" s="22">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <f t="shared" ref="S2:S10" si="4">AVERAGE(R2)</f>
-        <v>1</v>
-      </c>
-      <c r="T2" s="22">
+      <c r="N9" s="39">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39">
+        <v>1</v>
+      </c>
+      <c r="P9" s="39">
         <v>0.2</v>
       </c>
-      <c r="U2" s="22">
-        <v>1</v>
-      </c>
-      <c r="V2" s="28">
-        <f t="shared" ref="V2:V10" si="5">AVERAGE(R2,T2:U2)</f>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="Q9" s="39">
+        <v>1</v>
+      </c>
+      <c r="R9" s="39">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
         <v>0.9</v>
       </c>
-      <c r="E3" s="28">
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.43</v>
+      </c>
+      <c r="M10" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="39">
+        <v>1</v>
+      </c>
+      <c r="O10" s="39">
+        <v>1</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>1</v>
+      </c>
+      <c r="R10" s="39">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I3" s="25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="37">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G11" s="38">
         <v>0.9</v>
       </c>
-      <c r="J3" s="25">
+      <c r="H11" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
         <v>0.6</v>
       </c>
-      <c r="K3" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="25">
+      <c r="L11" s="38">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="M11" s="39">
         <v>0.6</v>
       </c>
-      <c r="O3" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="P3" s="28">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>1</v>
-      </c>
-      <c r="R3" s="22">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T3" s="22">
-        <v>1</v>
-      </c>
-      <c r="U3" s="22">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="N11" s="39">
+        <v>1</v>
+      </c>
+      <c r="O11" s="39">
+        <v>1</v>
+      </c>
+      <c r="P11" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>1</v>
+      </c>
+      <c r="R11" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="25">
-        <v>1</v>
-      </c>
-      <c r="O4" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="28">
-        <f t="shared" si="3"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="22">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="U4" s="22">
-        <v>1</v>
-      </c>
-      <c r="V4" s="28">
-        <f t="shared" si="5"/>
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="28">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="e">
+        <f>AVERAGE(Table145[[#This Row],[Data Encryption at rest]:[ Key Rotation]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="14" t="e">
+        <f>AVERAGE(Table145[[#This Row],[ Data Inventory]:[ Sensitive Data Protection]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="28">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="U5" s="22">
-        <v>1</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" si="5"/>
-        <v>0.93333333333333324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="28">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.89</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="O6" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="28">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="U6" s="22">
-        <v>1</v>
-      </c>
-      <c r="V6" s="28">
-        <f t="shared" si="5"/>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.93</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="M7" s="25">
-        <v>1</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="P7" s="28">
-        <f t="shared" si="3"/>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="22">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="22">
-        <v>1</v>
-      </c>
-      <c r="V7" s="28">
-        <f t="shared" si="5"/>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="28">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="R8" s="22">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="U8" s="22">
-        <v>1</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" si="5"/>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="28">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.89</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="U9" s="22">
-        <v>1</v>
-      </c>
-      <c r="V9" s="28">
-        <f t="shared" si="5"/>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="28">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I10" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="M10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" si="3"/>
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="R10" s="22">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="U10" s="22">
-        <v>1</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" si="5"/>
-        <v>0.79999999999999993</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>